--- a/mcmaster_excel/Steel_Pan_Head_Screws_with_External-Tooth_Lock_Washer.xlsx
+++ b/mcmaster_excel/Steel_Pan_Head_Screws_with_External-Tooth_Lock_Washer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,221 +434,133 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>OD</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Thick.</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr"/>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3/16"</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.219"</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.080"</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.230"</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.018"</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No. 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>90402A104</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>$9.24</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Washer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.219"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.230"</t>
+          <t>OD</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.018"</t>
+          <t>Thick.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ASME B18.13</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>90402A106</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.68</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>4-40</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -698,12 +610,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>90402A107</t>
+          <t>90402A104</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>9.82</t>
+          <t>$9.24</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -720,7 +632,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,12 +682,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>90402A108</t>
+          <t>90402A106</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.68</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -792,7 +704,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -842,12 +754,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>90402A109</t>
+          <t>90402A107</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.29</t>
+          <t>9.82</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -864,7 +776,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -914,12 +826,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>90402A110</t>
+          <t>90402A108</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -936,7 +848,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -986,12 +898,12 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>90402A112</t>
+          <t>90402A109</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>11.29</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -1008,7 +920,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1058,12 +970,12 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>90402A114</t>
+          <t>90402A110</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>14.02</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -1080,7 +992,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1125,17 +1037,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>90402A117</t>
+          <t>90402A112</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>13.97</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1152,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1197,17 +1109,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>90402A120</t>
+          <t>90402A114</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>14.02</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1224,7 +1136,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1234,27 +1146,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.285"</t>
+          <t>0.230"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.020"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1269,22 +1181,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>90402A142</t>
+          <t>90402A117</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1296,7 +1208,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1306,27 +1218,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.270"</t>
+          <t>0.219"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.285"</t>
+          <t>0.230"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.020"</t>
+          <t>0.018"</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1341,22 +1253,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>90402A144</t>
+          <t>90402A120</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1368,7 +1280,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1418,12 +1330,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>90402A145</t>
+          <t>90402A142</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1440,7 +1352,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1490,12 +1402,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>90402A146</t>
+          <t>90402A144</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1512,7 +1424,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1562,12 +1474,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>90402A149</t>
+          <t>90402A145</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1584,7 +1496,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1634,12 +1546,12 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>90402A148</t>
+          <t>90402A146</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1656,7 +1568,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1706,12 +1618,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>90402A150</t>
+          <t>90402A149</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1728,7 +1640,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1778,12 +1690,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>90402A151</t>
+          <t>90402A148</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1800,7 +1712,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1850,12 +1762,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>90402A152</t>
+          <t>90402A150</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>12.52</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1872,7 +1784,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1922,12 +1834,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>90402A153</t>
+          <t>90402A151</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>13.92</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1944,7 +1856,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>7/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1994,12 +1906,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90402A155</t>
+          <t>90402A152</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2016,7 +1928,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2061,17 +1973,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>90402A158</t>
+          <t>90402A153</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2088,7 +2000,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2098,22 +2010,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.285"</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.020"</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2138,17 +2050,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>90402A190</t>
+          <t>90402A155</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8.32</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2160,7 +2072,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2170,22 +2082,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.322"</t>
+          <t>0.270"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.320"</t>
+          <t>0.285"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.023"</t>
+          <t>0.020"</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2205,22 +2117,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>90402A191</t>
+          <t>90402A158</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2232,7 +2144,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2282,12 +2194,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>90402A192</t>
+          <t>90402A190</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>8.32</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -2304,7 +2216,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>7/16"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2354,12 +2266,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>90402A195</t>
+          <t>90402A191</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2376,7 +2288,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2426,12 +2338,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>90402A194</t>
+          <t>90402A192</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2448,7 +2360,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>7/16"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2498,12 +2410,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>90402A196</t>
+          <t>90402A195</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>11.56</t>
+          <t>10.98</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2520,7 +2432,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2570,12 +2482,12 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>90402A197</t>
+          <t>90402A194</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>11.39</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
@@ -2592,7 +2504,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2637,17 +2549,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>90402A200</t>
+          <t>90402A196</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
@@ -2664,7 +2576,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2709,17 +2621,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>90402A201</t>
+          <t>90402A197</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2736,7 +2648,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2746,22 +2658,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2781,22 +2693,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>90402A527</t>
+          <t>90402A200</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>9.94</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2808,7 +2720,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2818,22 +2730,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0.373"</t>
+          <t>0.322"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.383"</t>
+          <t>0.320"</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.024"</t>
+          <t>0.023"</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2853,22 +2765,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>90402A242</t>
+          <t>90402A201</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>10.78</t>
+          <t>10.06</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2880,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2925,17 +2837,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>90402A246</t>
+          <t>90402A527</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>9.94</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -2952,7 +2864,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2997,22 +2909,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>90402A821</t>
+          <t>90402A242</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3024,7 +2936,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3074,17 +2986,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>90402A827</t>
+          <t>90402A246</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3096,7 +3008,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3146,12 +3058,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>90402A829</t>
+          <t>90402A821</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>9.54</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3168,7 +3080,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3218,12 +3130,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>90402A830</t>
+          <t>90402A827</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>8.38</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
@@ -3240,7 +3152,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3290,12 +3202,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>90402A831</t>
+          <t>90402A829</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3312,7 +3224,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3362,12 +3274,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>90402A835</t>
+          <t>90402A830</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3384,7 +3296,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3434,12 +3346,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>90402A839</t>
+          <t>90402A831</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3456,7 +3368,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3501,17 +3413,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>90402A842</t>
+          <t>90402A835</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>11.73</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -3528,7 +3440,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3538,27 +3450,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0.425"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.151"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.410"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.027"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3578,17 +3490,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>90402A605</t>
+          <t>90402A839</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>12.69</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>12-24</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3600,7 +3512,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3610,27 +3522,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.373"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.510"</t>
+          <t>0.383"</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.024"</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3650,17 +3562,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>90402A610</t>
+          <t>90402A842</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3682,22 +3594,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0.492"</t>
+          <t>0.425"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.151"</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.510"</t>
+          <t>0.410"</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.028"</t>
+          <t>0.027"</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3717,22 +3629,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>90402A537</t>
+          <t>90402A605</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>12.69</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>12-24</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3744,7 +3656,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3794,12 +3706,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>90402A538</t>
+          <t>90402A610</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>11.35</t>
+          <t>14.87</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -3816,7 +3728,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3866,12 +3778,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>90402A540</t>
+          <t>90402A537</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3888,7 +3800,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>7/8"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3938,12 +3850,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>90402A546</t>
+          <t>90402A538</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3960,7 +3872,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4010,12 +3922,12 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>90402A551</t>
+          <t>90402A540</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -4032,70 +3944,214 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>7/8"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.510"</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.028"</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>90402A546</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.492"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0.510"</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.028"</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>90402A551</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>1 1/2"</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>0.492"</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.510"</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>0.028"</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Not Rated</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ASME B18.13</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ASME B18.13</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>90402A843</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>6.63</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N53" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
